--- a/biology/Médecine/Déficit_en_cytochrome_P_450_oxydoréductase/Déficit_en_cytochrome_P_450_oxydoréductase.xlsx
+++ b/biology/Médecine/Déficit_en_cytochrome_P_450_oxydoréductase/Déficit_en_cytochrome_P_450_oxydoréductase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_cytochrome_P_450_oxydor%C3%A9ductase</t>
+          <t>Déficit_en_cytochrome_P_450_oxydoréductase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit en cytochrome P 450 oxydoréductase est un trouble de la stéroïdogénèse entraînant des manifestations cliniques allant de la simple anomalie biologique au syndrome Antley-Bixler avec décès de l'enfant.
 Les personnes ayant un déficit en cytochrome P 450 ont un déficit en cortisol avec des manifestations cliniques mineures ou majeures avec risque de mort. Une ambiguïté génitale est présente avec chez les nouveau-nés masculin petit pénis et ectopie testiculaire et chez les nouveau-nés féminin une atrésie vaginale, des petites lèvres fusionnées, hypertrophie clitoridienne. Les manifestations à la puberté comprennent aménorrhée primaire et dystrophie ovarienne chez les filles, faible masculinisation chez les garçons.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_cytochrome_P_450_oxydor%C3%A9ductase</t>
+          <t>Déficit_en_cytochrome_P_450_oxydoréductase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_cytochrome_P_450_oxydor%C3%A9ductase</t>
+          <t>Déficit_en_cytochrome_P_450_oxydoréductase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,6 +555,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -548,7 +564,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_cytochrome_P_450_oxydor%C3%A9ductase</t>
+          <t>Déficit_en_cytochrome_P_450_oxydoréductase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,6 +583,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -574,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_cytochrome_P_450_oxydor%C3%A9ductase</t>
+          <t>Déficit_en_cytochrome_P_450_oxydoréductase</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -592,7 +610,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les manifestations phénotypiques principales sont des malformations crânio-faciales : élargissement de l'implantation du nez, nez aplati, hypertélorisme orbitale, oreilles décollées.
 On observe également une arachnodactylie et une gêne à l'extension de l'avant-bras (arthrogrypose) due à une synostose radio-ulnaire.
@@ -606,7 +626,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_cytochrome_P_450_oxydor%C3%A9ductase</t>
+          <t>Déficit_en_cytochrome_P_450_oxydoréductase</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -625,6 +645,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -632,7 +654,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_cytochrome_P_450_oxydor%C3%A9ductase</t>
+          <t>Déficit_en_cytochrome_P_450_oxydoréductase</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -651,6 +673,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -658,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_cytochrome_P_450_oxydor%C3%A9ductase</t>
+          <t>Déficit_en_cytochrome_P_450_oxydoréductase</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -678,8 +702,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mode de transmission
-Transmission autosomique récessive</t>
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Transmission autosomique récessive</t>
         </is>
       </c>
     </row>
@@ -689,7 +718,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_cytochrome_P_450_oxydor%C3%A9ductase</t>
+          <t>Déficit_en_cytochrome_P_450_oxydoréductase</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -707,11 +736,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:124015 [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:211750 [2]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [3]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:124015 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:211750 
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
